--- a/apps/management/data/duconfig.xlsx
+++ b/apps/management/data/duconfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\KULIAH\CAPSTONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8210B599-BBA6-46E2-9551-60AAA826EA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2904496-E209-4ACC-B203-903E90FFAC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{908E9C05-9DAF-47FE-9CCC-8E2879938158}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="139">
-  <si>
-    <t>192.168.1.3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="143">
   <si>
     <t>192.168.1.2</t>
   </si>
@@ -62,9 +59,6 @@
     <t>192.168.1.1</t>
   </si>
   <si>
-    <t>192.168.1.11</t>
-  </si>
-  <si>
     <t>192.168.1.10</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>0xe82</t>
   </si>
   <si>
-    <t>192.168.1.19</t>
-  </si>
-  <si>
     <t>192.168.1.18</t>
   </si>
   <si>
@@ -86,9 +77,6 @@
     <t>0xe83</t>
   </si>
   <si>
-    <t>192.168.1.27</t>
-  </si>
-  <si>
     <t>192.168.1.26</t>
   </si>
   <si>
@@ -98,9 +86,6 @@
     <t>0xe84</t>
   </si>
   <si>
-    <t>192.168.1.4</t>
-  </si>
-  <si>
     <t>192.168.1.34</t>
   </si>
   <si>
@@ -110,9 +95,6 @@
     <t>0xe85</t>
   </si>
   <si>
-    <t>192.168.1.5</t>
-  </si>
-  <si>
     <t>192.168.1.42</t>
   </si>
   <si>
@@ -122,9 +104,6 @@
     <t>0xe86</t>
   </si>
   <si>
-    <t>192.168.1.6</t>
-  </si>
-  <si>
     <t>192.168.1.50</t>
   </si>
   <si>
@@ -134,9 +113,6 @@
     <t>0xe87</t>
   </si>
   <si>
-    <t>192.168.1.7</t>
-  </si>
-  <si>
     <t>192.168.1.58</t>
   </si>
   <si>
@@ -146,9 +122,6 @@
     <t>0xe88</t>
   </si>
   <si>
-    <t>192.168.1.8</t>
-  </si>
-  <si>
     <t>192.168.1.66</t>
   </si>
   <si>
@@ -188,9 +161,6 @@
     <t>0xe92</t>
   </si>
   <si>
-    <t>192.168.1.12</t>
-  </si>
-  <si>
     <t>192.168.1.98</t>
   </si>
   <si>
@@ -200,9 +170,6 @@
     <t>0xe93</t>
   </si>
   <si>
-    <t>192.168.1.13</t>
-  </si>
-  <si>
     <t>192.168.1.106</t>
   </si>
   <si>
@@ -212,9 +179,6 @@
     <t>0xe94</t>
   </si>
   <si>
-    <t>192.168.1.14</t>
-  </si>
-  <si>
     <t>192.168.1.114</t>
   </si>
   <si>
@@ -224,9 +188,6 @@
     <t>0xe95</t>
   </si>
   <si>
-    <t>192.168.1.15</t>
-  </si>
-  <si>
     <t>192.168.1.122</t>
   </si>
   <si>
@@ -236,9 +197,6 @@
     <t>0xe96</t>
   </si>
   <si>
-    <t>192.168.1.16</t>
-  </si>
-  <si>
     <t>192.168.1.130</t>
   </si>
   <si>
@@ -278,9 +236,6 @@
     <t>0xe100</t>
   </si>
   <si>
-    <t>192.168.1.20</t>
-  </si>
-  <si>
     <t>192.168.1.162</t>
   </si>
   <si>
@@ -290,9 +245,6 @@
     <t>0xe101</t>
   </si>
   <si>
-    <t>192.168.1.21</t>
-  </si>
-  <si>
     <t>192.168.1.170</t>
   </si>
   <si>
@@ -302,9 +254,6 @@
     <t>0xe102</t>
   </si>
   <si>
-    <t>192.168.1.22</t>
-  </si>
-  <si>
     <t>192.168.1.178</t>
   </si>
   <si>
@@ -314,9 +263,6 @@
     <t>0xe103</t>
   </si>
   <si>
-    <t>192.168.1.23</t>
-  </si>
-  <si>
     <t>192.168.1.186</t>
   </si>
   <si>
@@ -326,9 +272,6 @@
     <t>0xe104</t>
   </si>
   <si>
-    <t>192.168.1.24</t>
-  </si>
-  <si>
     <t>192.168.1.194</t>
   </si>
   <si>
@@ -368,9 +311,6 @@
     <t>0xe108</t>
   </si>
   <si>
-    <t>192.168.1.28</t>
-  </si>
-  <si>
     <t>192.168.1.226</t>
   </si>
   <si>
@@ -380,9 +320,6 @@
     <t>0xe109</t>
   </si>
   <si>
-    <t>192.168.1.29</t>
-  </si>
-  <si>
     <t>192.168.1.234</t>
   </si>
   <si>
@@ -392,9 +329,6 @@
     <t>0xe110</t>
   </si>
   <si>
-    <t>192.168.1.30</t>
-  </si>
-  <si>
     <t>192.168.1.242</t>
   </si>
   <si>
@@ -404,9 +338,6 @@
     <t>0xe111</t>
   </si>
   <si>
-    <t>192.168.1.31</t>
-  </si>
-  <si>
     <t>192.168.1.250</t>
   </si>
   <si>
@@ -416,9 +347,6 @@
     <t>0xe112</t>
   </si>
   <si>
-    <t>192.168.1.32</t>
-  </si>
-  <si>
     <t>gnbid</t>
   </si>
   <si>
@@ -453,6 +381,90 @@
   </si>
   <si>
     <t>f1duport</t>
+  </si>
+  <si>
+    <t>192.168.1.33</t>
+  </si>
+  <si>
+    <t>192.168.1.41</t>
+  </si>
+  <si>
+    <t>192.168.1.49</t>
+  </si>
+  <si>
+    <t>192.168.1.57</t>
+  </si>
+  <si>
+    <t>192.168.1.65</t>
+  </si>
+  <si>
+    <t>192.168.1.73</t>
+  </si>
+  <si>
+    <t>192.168.1.81</t>
+  </si>
+  <si>
+    <t>192.168.1.89</t>
+  </si>
+  <si>
+    <t>192.168.1.97</t>
+  </si>
+  <si>
+    <t>192.168.1.105</t>
+  </si>
+  <si>
+    <t>192.168.1.113</t>
+  </si>
+  <si>
+    <t>192.168.1.121</t>
+  </si>
+  <si>
+    <t>192.168.1.129</t>
+  </si>
+  <si>
+    <t>192.168.1.137</t>
+  </si>
+  <si>
+    <t>192.168.1.145</t>
+  </si>
+  <si>
+    <t>192.168.1.153</t>
+  </si>
+  <si>
+    <t>192.168.1.161</t>
+  </si>
+  <si>
+    <t>192.168.1.169</t>
+  </si>
+  <si>
+    <t>192.168.1.177</t>
+  </si>
+  <si>
+    <t>192.168.1.185</t>
+  </si>
+  <si>
+    <t>192.168.1.193</t>
+  </si>
+  <si>
+    <t>192.168.1.201</t>
+  </si>
+  <si>
+    <t>192.168.1.209</t>
+  </si>
+  <si>
+    <t>192.168.1.217</t>
+  </si>
+  <si>
+    <t>192.168.1.225</t>
+  </si>
+  <si>
+    <t>192.168.1.233</t>
+  </si>
+  <si>
+    <t>192.168.1.241</t>
+  </si>
+  <si>
+    <t>192.168.1.249</t>
   </si>
 </sst>
 </file>
@@ -864,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B123770A-CFF0-4FB1-A726-51BB7E2A16EE}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,54 +887,54 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <v>2152</v>
@@ -937,30 +949,30 @@
         <v>99</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
         <v>2152</v>
@@ -975,30 +987,30 @@
         <v>99</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2">
         <v>2152</v>
@@ -1013,30 +1025,30 @@
         <v>99</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>2152</v>
@@ -1051,30 +1063,30 @@
         <v>99</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>2152</v>
@@ -1089,30 +1101,30 @@
         <v>99</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="3">
         <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2">
         <v>2152</v>
@@ -1127,30 +1139,30 @@
         <v>99</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3">
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2">
         <v>2152</v>
@@ -1165,30 +1177,30 @@
         <v>99</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2">
         <v>2152</v>
@@ -1203,30 +1215,30 @@
         <v>99</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="3">
         <v>1</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2">
         <v>2152</v>
@@ -1241,30 +1253,30 @@
         <v>99</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2">
         <v>2152</v>
@@ -1279,30 +1291,30 @@
         <v>99</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2">
         <v>2152</v>
@@ -1317,30 +1329,30 @@
         <v>99</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="3">
         <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2">
         <v>2152</v>
@@ -1355,30 +1367,30 @@
         <v>99</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E14" s="2">
         <v>2152</v>
@@ -1393,30 +1405,30 @@
         <v>99</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2">
         <v>2152</v>
@@ -1431,30 +1443,30 @@
         <v>99</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2">
         <v>2152</v>
@@ -1469,30 +1481,30 @@
         <v>99</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" s="3">
         <v>1</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>62</v>
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2">
         <v>2152</v>
@@ -1507,30 +1519,30 @@
         <v>99</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J17" s="3">
         <v>1</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2">
         <v>2152</v>
@@ -1545,30 +1557,30 @@
         <v>99</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2">
         <v>2152</v>
@@ -1583,30 +1595,30 @@
         <v>99</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J19" s="3">
         <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2">
         <v>2152</v>
@@ -1621,30 +1633,30 @@
         <v>99</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J20" s="3">
         <v>1</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E21" s="2">
         <v>2152</v>
@@ -1659,30 +1671,30 @@
         <v>99</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J21" s="3">
         <v>1</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2">
         <v>2152</v>
@@ -1697,30 +1709,30 @@
         <v>99</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3">
         <v>1</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>84</v>
+        <v>1</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E23" s="2">
         <v>2152</v>
@@ -1735,30 +1747,30 @@
         <v>99</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J23" s="3">
         <v>1</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>88</v>
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2">
         <v>2152</v>
@@ -1773,30 +1785,30 @@
         <v>99</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" s="3">
         <v>1</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2">
         <v>2152</v>
@@ -1811,30 +1823,30 @@
         <v>99</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25" s="3">
         <v>1</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>96</v>
+        <v>1</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2">
         <v>2152</v>
@@ -1849,30 +1861,30 @@
         <v>99</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J26" s="3">
         <v>1</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2">
         <v>2152</v>
@@ -1887,30 +1899,30 @@
         <v>99</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J27" s="3">
         <v>1</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E28" s="2">
         <v>2152</v>
@@ -1925,30 +1937,30 @@
         <v>99</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J28" s="3">
         <v>1</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E29" s="2">
         <v>2152</v>
@@ -1963,30 +1975,30 @@
         <v>99</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29" s="3">
         <v>1</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E30" s="2">
         <v>2152</v>
@@ -2001,30 +2013,30 @@
         <v>99</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J30" s="3">
         <v>1</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="E31" s="2">
         <v>2152</v>
@@ -2039,30 +2051,30 @@
         <v>99</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J31" s="3">
         <v>1</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>118</v>
+        <v>1</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E32" s="2">
         <v>2152</v>
@@ -2077,30 +2089,30 @@
         <v>99</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32" s="3">
         <v>1</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>122</v>
+        <v>1</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E33" s="2">
         <v>2152</v>
@@ -2115,16 +2127,16 @@
         <v>99</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J33" s="3">
         <v>1</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>126</v>
+        <v>1</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
